--- a/wx64.xlsx
+++ b/wx64.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC144519-9408-44B9-8914-4B466239007E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF083754-9C17-476B-87E0-C48716CA9D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Version</t>
   </si>
@@ -59,21 +59,9 @@
     <t>8064_2940</t>
   </si>
   <si>
-    <t>11 Aug, 2025</t>
-  </si>
-  <si>
-    <t>9 Sep, 2025</t>
-  </si>
-  <si>
-    <t>29 Sep, 2025</t>
-  </si>
-  <si>
     <t>8065_2960</t>
   </si>
   <si>
-    <t>7 Nov, 2025</t>
-  </si>
-  <si>
     <t>https://dldir1v6.qq.com/weixin/android/weixin8065android2960_0x28004137_arm64.apk</t>
   </si>
   <si>
@@ -108,6 +96,33 @@
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/wx-64/8065_2960.apk</t>
+  </si>
+  <si>
+    <t>8066_2980</t>
+  </si>
+  <si>
+    <t>Dec 2, 2025</t>
+  </si>
+  <si>
+    <t>Nov 7, 2025</t>
+  </si>
+  <si>
+    <t>Sep 29, 2025</t>
+  </si>
+  <si>
+    <t>Sep 9, 2025</t>
+  </si>
+  <si>
+    <t>Aug 11, 2025</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hYseKROPqgDogH3subkl1g?pwd=1234 </t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/wx-64/8066_2980.apk</t>
+  </si>
+  <si>
+    <t>https://dldir1v6.qq.com/weixin/android/weixin8066android2980_0x28004233_arm64_1.apk</t>
   </si>
 </sst>
 </file>
@@ -499,24 +514,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -533,72 +548,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
